--- a/data/hotels_by_city/Dallas/Dallas_shard_63.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_63.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Reality4u</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We stayed one night. Value was good Accommodations were nice. Bed was comfortable. The hotel appears to be a meeting place for construction and railroad workers. Some stayed there. Many others showed up in the lobby the next morning and filled the parking lot. In fact I was standing outside in a parking place using my phone because it would not work inside the building (AT &amp; T-two blocks from an AT &amp; T sales/service office) and I was asked to move by one of the workers showing up for the day so he could park in that space and there were a lot of spaces available at that time. Not good!! And they served no breakfast. Candlewood is just not up to the standard of the other suite hotels. Won't stay againMore</t>
   </si>
   <si>
+    <t>Boxcarvp45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r570485786-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Usually I have zero issues, but this time was a little different, The parking was horrible due to large construction trucks parking sideways taking up multiple spots. It made it difficult to locate a place to park and many times you had to go to a neighboring business to park and hope you wouldn't have your vehicle towed.Also upon checking in we were asked why we were visiting. They were told that a immediate family member was in the hospital at Wise County Medical Center. Well on our third night there we were informed by the medical staff that if we are staying at Candlewood Suites then we get a discount due to being there due to visiting someone in Wise County hospital. Well upon arrival back at the hotel we informed the hotel staff and they stated that we do get a discount. Upon checking out we discovered they only gave us a discount for 2 of the 4 nights we stayed.More</t>
   </si>
   <si>
+    <t>crl0001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r558564566-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>The key amenity of this hotel is the full-size refrigerator in the room as well as a cooktop and a basic set of dishes.  Other reviewers have noted the lack of a breakfast option.  This is to be expected since you can make your own breakfast in the room.The fitness facility is a nice extra and my wife found that she could maintain her exercise routine even while we visited the hotel.  Also, there is a small pantry with items available for sale.The king bed was comfortable.  I will choose to stay here again.More</t>
   </si>
   <si>
+    <t>BestLife2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r549321898-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>When booking our event, the admins told us we would have a complimentary continental breakfast, but upon arriving, we discovered there was no breakfast. This was no HUGE deal to me, since hotel breakfasts are usually nothing but a carb fest, but still... I could have at least gotten a banana or something. When I went into the little "canteen" offered by the hotel, I could see that someone had covered up the morning breakfast announcement with a paper that said something like: Sorry, no breakfast today. But the woman at the desk said that they NEVER offer breakfast... What? Oh, well, whatever.Room was clean and spacious. Very nice stay. I appreciated having the little kitchenette, though I was only staying one night.More</t>
   </si>
   <si>
+    <t>davidel57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r506257330-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Martin41999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r503292898-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>My daughter and I stayed here with my parents to visit my brother and his wife and their new baby at the hospital. The hotel was clean and we needed a late checkout which they gave us with no trouble at all. The only issue we had was a family that has been staying their for weeks. They seemed to have taken over the pool area and the mother was drinking all day long. It was hard to relax and I didn't feel comfortable letting my daughter leave the room alone and she's 15. I can't really blame this on the hotel though but it was a bad experience for us. We never even swam because of it. The air conditioner made a very loud clicking noise when it shut off which made it hard to sleep but overall, the beds were comfortable, the room was clean, and the staff were very friendly.More</t>
   </si>
   <si>
+    <t>Charles W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r502036894-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Stayed here for a week when my wife was working in wise county and I was with my 4 kids room was clean and ac worked very good wifi didn't connect all the time but we just went to pool and David the maintenance man was awesome made sure everything was great would highly recommend this hotel More</t>
   </si>
   <si>
+    <t>Travelerfrank79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r497654198-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>This hotel has reasonable rates and is pretty clean.  There is no restaurant but it has kitchenettes so you can prepare food yourself. There seemed to be a lot of families there. I'm sure they have a pool and hot tub.More</t>
   </si>
   <si>
+    <t>TexansFan2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r485785452-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>From beginning to end,our stay at this property was outstanding.  The kitchenette was stocked with everything needed to cook and clean.  The free laundry can't be beat...be sure to bring your own detergent/softener as that is not included.  The rooms are spacious.  OMG&gt;&gt;&gt;the bed was nice and firm yet still comfortable.  The price can't be beat...with taxes for one night King studio suite nonsmoking...$74.64.More</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r483869938-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>Please see the photo of my receipt from a recent stay at this hotel...I was quoted a rate of $79 per night for four nights...who knew they were going to jack up the rate on my last night WITHOUT TELLING ME AND BLACKING IT OUT on my bill??  Is this how Candlewood does business?  Everyone should keep an eye out for this kind of dishonesty when staying here....it will be my last visit to them for sure.More</t>
   </si>
   <si>
+    <t>Trena R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r467775458-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>A member of my family had a procedure done in decatur, texas.  Booked a room at candlewood suites which was located just a short distance from the hotel.  The room was clean and roomy.  The room has a small kitchen with a full size refrigerator.  The room was very nice.I have two negatives about this perticularhotel.  We did not arrive until later in the evening and stood at the front desk for a good 10 minutes before came out to greet us and begin check in.  This persons actions were very unprofessional.  This person never greeted us , but just ask our name.  I did not feel very welcome in the hotel.  The second item is they do not havea breakfast. Upon checkout, the morning person was friendly, very professional, and quick.  I would stay again just because it is close to the medical facility.More</t>
   </si>
   <si>
+    <t>jantraveler9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r452441760-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -447,6 +483,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Jan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r448374845-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>We checked in for one night.  The girl at the front desk was very friendly and quickly gave us a room on the 4th floor.  We had requested a  room on the first floor, as were were travelling with our dog, who hates elevators!  She quickly found us a first floor room and made the change for us.  We asked for a cart, as none were in the lobby.  She immediately went to one of the rooms and brought us a cart back.  This all took place during a shift change.  She was due to get off work, but helped us with a smile.  We were pleasantly surprised at the cleanliness of the hotel in general and of our room.  Everything felt clean and fresh.  I was a little skeptical, as we had stayed at a Candlewood Suites in Owasso, OK two weeks before.  Our room there was neither clean nor fresh.  And the beds were not good.  Our bed at Candlewood, Decatur was comfortable, although the foundation did pop loudly, when we changed position. The microwave, refrigerator and dishwasher are so convenient.   The hotel offers a very nice dog walk area, a pretty little pool and a basketball goal.  It is in a nice, quiet location and is close to great restaurants.  We will certainly stay there again, when in the Decatur area.More</t>
   </si>
   <si>
+    <t>TooSassy30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r439521531-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>patrikeif2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r434584769-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -507,6 +552,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Pat5414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r434382656-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -525,6 +573,9 @@
     <t>Check in was seamless, the staff was wonderful.  The room was a nice size, very clean and bed was extremely comfortable.  We stayed for 3 days while enjoying the area. This location was close enough to comfortably drive in to Dallas for a day.We did use the exercise room and were happy with the selection of machines, weights, etc.We were surprised to see that they offered a free laundry room for guest, what a nice surprise this was!! Plenty of machines, everything in there was very clean.My only complaint (and it's a small one) is that they stocked the room with exactly 2 of everything (dishes, silverware, glasses, etc)...it would have been a little nicer to at least have 4 of everything so you weren't needing to wash dishes so often. That being said, we didn't ask for additional either so very possible you could get more just by asking....We would definitely stay at this location again!More</t>
   </si>
   <si>
+    <t>hanrattyK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r428570507-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -552,6 +603,9 @@
     <t>First off the WiFi password didn't work..so I had to call the vendor who does this hotels tech support..I was on hold about 20 min..then I had to give the kid my op anac addresses. REALLY!..next was the strange shower curtain. It isn't long enough or wide enough. I ended up spraying water all over the floor...other than that it was a clean quite and really good parkingMore</t>
   </si>
   <si>
+    <t>Terry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r401121384-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>Best hotel in Decatur! Clean rooms and friendly staff. Has a small kitchen area in every room so you can bring in snacks to fix in the room. Love the free laundry facility. Most hotels are limited on machines that don't work half the time.</t>
   </si>
   <si>
+    <t>Christy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r398209873-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -585,6 +642,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>westernmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r397710958-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -606,6 +666,9 @@
     <t>This was the perfect hotel for us! We were traveling with our daughter and her three little ones and the extra spacious room was perfect. This was our favorite place during our 4,000 mile trip! We stayed at several chains - Wyndham, Hilton, Best Western.  This was also our cheapest room!  The check in was good - we changed our room from a king to a dbl queen but they were fine with it. The kids loved having the extra large room after 12 hours in the car! We picked up some food and brought it back to the room.  The little counter made a great table.  We forgot milk for the three year old but the young lady at the front desk gave us a couple of cartons. We really appreciated that. The kids also loved the chocolate chip cookies that were in the lobby. The bathroom was nice sized with very nice towels. The pool was the icing on the cake for us. It's a nice outdoor pool with a couple of little waterfalls. The area was very clean and the kids could laugh and yell without it disturbing anyone. They do need to do a little pool maintenance, but no biggie to us. The place was nice and clean and we felt very comfortable there. We will stay here again. More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r368725052-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -624,6 +687,9 @@
     <t>I travel for work and stay in a motel 3-4 times a week. Stayed here with my wife and daughter and was greatly pleased. Have never stated at a Candlewood before but will include it as options from now on. Since a room for me when traveling is a place to sleep they provided one of the best beds I've had. It's not far off 287 but did not notice the traffic noise at all.  Again I stay in motels every week so I do not prefer the continental breakfast I prefer eating at a restaurant and the price of this room was so good eating breakfast at a restaurant is not a problem.  I am greatly impressed with all the things they have to loan out like movies and games. This is most definitely a family friendly place. More</t>
   </si>
   <si>
+    <t>alysadventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r353146442-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -642,6 +708,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>roxiekay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r352449990-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -657,6 +726,9 @@
     <t>The check in was quick. The property is nicely maintained. The rooms are lsrge and spacious with nice sized kitchens. The bed was comfortable and the recliner was a nice touch. I enjoyed the stay. The gym is well equipped. The location is convenient to the hospital, shopping and highway.</t>
   </si>
   <si>
+    <t>roadwarrior2057</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r343534385-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -675,6 +747,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>FlyfishingJosie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r340053947-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -693,6 +768,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>DurangoLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r318782036-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>After traveling 14 hours from Durango in route to Louisiana, Candlewood Suites was a welcome sight. It was extremely comfortable, welcomed our pooch and even recommended a great restaurant (Casa Torres) to these weary travelers.  We will be back!More</t>
   </si>
   <si>
+    <t>Fred Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r303039930-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -744,6 +825,9 @@
     <t>This property is geared more towards extended stay guests than the one night passing through traveler. The room has a kitchenette with enough amenities to do some light food prep (full size fridge, stove top, utensils, cookware, etc)  They were having a cookout for the reward club members the evening we were there and after inquiring they said anyone could attend but we weren't feeling included so we didn't go. Breakfast is continental only and served in the meeting room. Candlewood has "Kupboard" where there is a decent selection of snack foods and beverages. Kind of like a mini convenience store.Pets are kind of welcomed (more paperwork and fees than any other place we stayed at this trip). There is a modest pet relief area on the property. Nothing else available in the area. Air conditioner wasn't working properly but we didn't want to change rooms so we lived with it and reported it to the desk the next morning. Room was smelled musty but that was probably the A/C problem.I think this would be ideal for extended stays but not so much for the one nighter.More</t>
   </si>
   <si>
+    <t>Melanie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r302451310-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -762,6 +846,9 @@
     <t>Pros - Nice room. I liked the full size fridge. Friendly staff.Cons - LOUSY breakfast. It's almost like an after thought. Only prepackaged items and a handful of fruit. I went down at 7:30. One orange, some blueberry bagels, and a few danishes were left. No milk, oj or water to drink. No staff in site.More</t>
   </si>
   <si>
+    <t>Jessica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r281248392-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -789,6 +876,9 @@
     <t>We got stuck between Decatur and home after a trip to the Dallas TX area for the day. Major flooding caused all kinds of road closures. The hotel was able to get us 2 rooms close together for the family at the last minute. Staff was very friendly and helpful. The loaner locker and hotel store were very helpful. Suites came stocked with dishes and options for entertainment. One room air conditioning did not function well, but the other room was fine. High quality towels. Worth the money and would be a great place to stay if needed for extended period of time. Washer/dryer available.More</t>
   </si>
   <si>
+    <t>Fallon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r277111865-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -807,6 +897,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>RON T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r274104036-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -822,6 +915,9 @@
     <t>The facility was neat and clean with a friendly staff. They provide a continental breakfast.  It is also located close to numerous resturaunts, but a favorite is probably a mile away and closer to downtown, Sweetie Pies.  Excellenty food and service.</t>
   </si>
   <si>
+    <t>Leonardpierce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r263857599-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -840,6 +936,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>63David63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r254777244-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -858,6 +957,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Kymber14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r253722322-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -882,6 +984,9 @@
     <t>My family and I had such a great stay at Candlewood during the holidayds. The front desk went above and beyond to make us feel right at home. I definitely would recommend this hotel to our friends and family. We really enjoyed our stay. Thank ya'll again for the great hospitality. See ya'll again soon. More</t>
   </si>
   <si>
+    <t>FloridaK-gin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r242194895-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1011,9 @@
     <t>These rooms are my favorite of all the rooms I've lived in since traveling for work. A real home away from home that not only offers top notch amenities &amp;beautiful set up, but the service leaves absolutely nothing to be desired! Even while taking the time to come to my room to assist me with internet issues my mngr Mr Nick took the extra second to be effortlessly personable with the simple goal of putting a smile on  my face. I appreciate that. The rates just speak for themselves, &amp;if your not sure what your gettin for your $ when you enter your room your sure to be pleasantly surprised! I'm guna put up my feet&amp; relax in my recliner now as I'm jus returning from a holiday trip home w/ fam to my Candlewood Suite for work in the morning. Satisfied customer signing off...More</t>
   </si>
   <si>
+    <t>Mary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r241183071-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1035,9 @@
     <t>We were impressed with our room &amp; Candlewood Suites in general. We would definitely stay here again if in the area. They have several 'extra mile' amenities. The only downside was when we checked out, the printed statement was not the same price we were told we were being charged. It was less, but the desk clerk kept saying she did not know or couldn't explain instead of trying to get us an answer. So, I will have to call on Mon. &amp; talk to management I guess. Otherwise a great experience!More</t>
   </si>
   <si>
+    <t>somraj r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r240906751-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1053,9 @@
     <t>The Candlewood in Decatur is very clean and the staff is efficient and very friendly. The free laundry is very well maintained and very clean a plus in my book. Will decently stay here again. You must here yo like it. Pool outside is nice.</t>
   </si>
   <si>
+    <t>Deanna G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r240439882-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1083,9 @@
     <t>The hotel is clean, well maintained and upto date. Internet service is fast and always availble. The staff is pleasant and responsive, especially the manager, Nick, he will make right and make it work.</t>
   </si>
   <si>
+    <t>eigenvektor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r219535137-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1128,9 @@
     <t>I stay at this motel for business a week at a time. I have no  problems with the motel itself. Its always clean and a great place to stay. I do have a problem with them and reservations. I make my reservations when I leave usually for a room on the first floor because of a bad knee. I never get my reservation. They always have some excuse as to why I cant have the room I reserved. I am a platinum member. One time I got told it was because I wasn't when I was. This time I got told these people had this room reserved for year. Really!!! I wont continue to stay here if I am going to be lied to. I make my reservations and expect to be treated just like everyone else.More</t>
   </si>
   <si>
+    <t>Sylvia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r178770568-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1170,9 @@
     <t>This my second stay at Candlewood Suites in Decatur in recent months. The staff are friendly and helpful.  The property is well maintained and clean.  The only problem encountered was a loud cracking noise in the walls off and on during the night. It sounded like wood splitting. More</t>
   </si>
   <si>
+    <t>Darryl_G_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r166071626-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1209,9 @@
     <t>I have stayed at this hotel for almost two years due to work and this is the best place I have ever stayed. Every one of the staff are wonderful. Nick is the kindest, most generous individual you will meet. Additionally, this place is very clean with too many amenities to name!</t>
   </si>
   <si>
+    <t>rdtf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r165249253-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1260,9 @@
     <t>Stayed 2 nights on business and was pleased with my stay. The staff was helpful and friendly. The room was clean and the bed was comfortable. The pool and workout areas were well maintained. A nice place to stay.More</t>
   </si>
   <si>
+    <t>Julie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r160212924-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1290,9 @@
     <t>Staying at the Candlewood Suites in Decatur is one of the best experiences I've had with a hotel. I stay in a hotel over 100 nights a year and this is far above any expectations. The staff and courtesy of this hotel is nothing but the BEST. Thank you for making my stay my homeMore</t>
   </si>
   <si>
+    <t>ChrisF469</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r156602469-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1314,9 @@
     <t>The staff here went above and beyond with all my needs and requests.  The owner is one of the nicest and most respectable individuals I have ever met.  The moment I return to North Texas for work I know where I'll be staying.Thanks Nick, Brittany, Erica and Ashley.-ChrisMore</t>
   </si>
   <si>
+    <t>Olineman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r155544262-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1344,9 @@
     <t>Recently stayed here for the second time while running in a marathon that is held just north of town with a couple of friends.  Needless to say if I run the race next year I will be staying at the same Candlewood Suites again.I do not really know how old the property is but I have paid much more to stay in hotels that are not nearly as clean.  This property still is very well upkept.  I did see a previous review that said the total opposite and have no idea what they were looking at.  We used the pool area both nights we were in town and it still looked as if the hotel opened only a few weeks ago!  The hallways as well as the rooms are immaculate.The staff has always been very personable and helpful.  Never has there been an issue with check in or any request that we have had.No, they do not have any type of breakfast but there are many options within a half mile.  Those usually provide a better selection than most chain hotels can as well.Bottom line is that this seems to be a well managed property with a friendly staff at a very reasonable choice.  I personally hope that they keep it that way.More</t>
   </si>
   <si>
+    <t>GranJanTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r153822352-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1365,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>dean a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r142431226-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1395,9 @@
     <t>We stayed at this motel due to a family member being admitted to the hospital. We paid $139/ night...totally not worth it !!!!! lumpy pillows... sheets were stained and the walls had scuffs on them.... and the work crew staying there did not make my wife feel safe at all. This motel does not serve breakfast or even a donut...for a 139 bucks thats the least they can do !!!!!!!! staff was completely indifferent and did not even bother to get up from their chair when anyone walked by.....i have stayed in many hotels and even a motel 6 clerk will greet you coming and going. The nurses at the hospital told us that we should have gotten the hospital rate for patients and family...when we brought this to the desk clerks attention she gave us attitude...when asked to speak with the manager the owner refused to speak with us.The only bright spot was the houskeeping staff...they were polite and gave us extra towels.More</t>
   </si>
   <si>
+    <t>Ryan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r141931948-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1422,9 @@
     <t>Great location! Very Clean! Awesome job this hotel! I very much recommend Candlewood Suites!! It was in the perfect location in Decatur, TX! Around all of the shops &amp; eating places!  It was a home away from home!More</t>
   </si>
   <si>
+    <t>Glennda E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r141495764-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1452,9 @@
     <t>I would recommend the Candlewood to any one.  Very nice people, staff, and clean people.I need to come back for 1 month to 6weeks, and I now know where to stay.I also have family in the area, to visit, but it is nice to have your own living quarters. Thank you for making my stay great..More</t>
   </si>
   <si>
+    <t>anthonyaustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r140536658-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1479,9 @@
     <t>The staff at this hotel is above stellar.  Besides offering free washer and dryer usage, this hotel has all the comforts of home (stove, microwave, full-sized refrigerator).  I recommend this hotel if you are looking for a clean, friendly, and quiet environment.More</t>
   </si>
   <si>
+    <t>Curtis P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r140206052-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1506,9 @@
     <t>Very nice stay. The staff was very helpful, especially the GM and the director of sales. A couple nice touches were the TV in the elevator, and the recliner in the room. I'm in Decatur once a year, and I plan on staying here again.More</t>
   </si>
   <si>
+    <t>Donna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r138897823-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1563,9 @@
     <t>The staff is helpful and very welcoming.  I can tell they're happy that I'm staying there and have always done whatever they can to help out.  The workout and laundry room is always open and the pool is a nice facility. The size of the fridge alone is enough to keep me there over other places in town.More</t>
   </si>
   <si>
+    <t>Travel-Till-Ya-Drop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r129857996-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1588,9 @@
   </si>
   <si>
     <t>My review stands but something odd. Around the entry way, lobby , store,  gym of this place is trash...it almost looks planted. When I came in last night I just thought they had been super busy even though I didn't see any customers, this morning same story. Even though front desk workers just sitting there with nobody around. If I was sitting in this lovely place I would keep it clean. Maybe they get very low pay and this is their protest.More</t>
+  </si>
+  <si>
+    <t>Cristal D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r128007694-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
@@ -1464,6 +1626,9 @@
 Finally, when the sales manager "remembered" she had agreed to allow us to leave early, we thought the confusion was settled.  Nope.  On the day of our departure, when we lost and our team rep notified the hotel we'd be checking out, I went to the front dest as soon as...I'd love to leave a raving review of this hotel simply to support the housekeeping staff.  They do an amazing job.  This hotel is immaculate.  The ammenities are also remarkable.  Unfortunately, the goodness ends there.  We stayed here with a group and were supposedly given a group rate.  Only to find out later, we were given a rate about $45.00 MORE per night than a comparable group.  (This information came from a slip of tongue by one of the staff members).  Furthermore, we were told by the sales manager, since our group was visiting due to a sports tournament, we could leave if our team lost on the day we lost.  However, even when asking 48 hours in advance to remove a night from my own reservation, I was met with hostility and was told I could not just "walk up there and remove a night" from my reservation.  This startled me.  I have stayed at many hotels and have NEVER had a problem leaving early when giving notice (esp 48 hours!).  Then, I found out other group members had been allowed to do what I was being denied.  Finally, when the sales manager "remembered" she had agreed to allow us to leave early, we thought the confusion was settled.  Nope.  On the day of our departure, when we lost and our team rep notified the hotel we'd be checking out, I went to the front dest as soon as possible to turn in my keys.  I was informed (by one of the most unkind desk clerks I've encountered in the hotel business) I would be charged for that night because I didn't meet their deadline.  WHAT?!?  After settling the matter, I began my travel home.  The next morning, I checked my online banking and realized the hotel still had a hold on my account for over $300.00 more than what I owed.  My bank said to simply have the hotel fax my receipt to them and they'd release the hold.  This took me over three hours to attempt to resolve.  AND I HAD TO CONTACT THEIR HEADQUARTERS just to persuade them to fax my receipt (which they NEVER ended up doing, by the way).  So, as much as I'd like to say I enjoyed my stay at Candlewood Decatur, the stress of dealing with their front desk staff and management far outweighed any pleasure. I would never recommend staying there unless you don't mind the tension and are looking for a fight.More</t>
   </si>
   <si>
+    <t>William S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r125512906-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1647,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>wtxtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r121096746-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1692,9 @@
     <t>The motel was in tip top shape. Everything was nice and new and comfortable.The front desk girls weren't very friendly however.But the hotel was nice and clean, well-appointed, and pristine.</t>
   </si>
   <si>
+    <t>Ester A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r118912865-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1722,9 @@
     <t>In my 30 plus yrs of business travel - this is one of my top five motels for accomdations at a very resonable price. They went out of their way to make sure we had what we needed when we needed it. Their internet NEVER went down which in its self speaks volumes. Nick and his crew were very professional and yet "down home" friendly.Ester with NodalSeismic LLCMore</t>
   </si>
   <si>
+    <t>BennyWhaley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r115303041-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1576,6 +1750,9 @@
   </si>
   <si>
     <t>I loved my stay the staff is great all the girls on front desk were fabulous!! I have stays at times for 2 and 3 weeks at a time my stay was the best I have ever had at a hotel and I will be back every time I am in Decatur. I loved the free laundry and all the many other excellent services this hotel offers!!! I can't wait to get back!!More</t>
+  </si>
+  <si>
+    <t>lucasg16</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r115268215-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
@@ -2104,43 +2281,47 @@
       <c r="A2" t="n">
         <v>61255</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2156,47 +2337,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61255</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -2213,56 +2398,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61255</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>124157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2274,56 +2463,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61255</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2339,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61255</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2402,50 +2599,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61255</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2463,50 +2664,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61255</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2518,47 +2723,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61255</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -2575,56 +2784,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61255</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2642,56 +2855,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61255</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2707,56 +2924,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61255</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2768,56 +2989,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61255</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2831,50 +3056,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61255</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>26336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2894,50 +3123,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61255</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2957,50 +3190,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>61255</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3014,50 +3251,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61255</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3077,50 +3318,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61255</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3132,47 +3377,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61255</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>8121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3191,50 +3440,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61255</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>22427</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3248,50 +3501,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61255</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3305,41 +3562,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61255</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -3358,50 +3619,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61255</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3415,50 +3680,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61255</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3472,50 +3741,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61255</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3529,50 +3802,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61255</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124173</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3592,41 +3869,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61255</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3643,56 +3924,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61255</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>14876</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3708,56 +3993,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>61255</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>13258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3769,56 +4058,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61255</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3836,56 +4129,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61255</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3905,50 +4202,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61255</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124176</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3968,50 +4269,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61255</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4025,50 +4330,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61255</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4082,41 +4391,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61255</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124179</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4143,47 +4456,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61255</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4210,56 +4527,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="X36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61255</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4277,56 +4598,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61255</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4344,50 +4669,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61255</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>345</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4407,7 +4736,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
@@ -4420,37 +4749,37 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4470,41 +4799,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61255</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4533,50 +4866,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61255</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4598,47 +4935,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X42" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y42" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61255</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7979</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4665,47 +5006,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61255</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4732,56 +5077,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="X44" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="Y44" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61255</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4803,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="X45" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
@@ -4822,37 +5171,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4876,41 +5225,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61255</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4937,47 +5290,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X47" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61255</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -5004,56 +5361,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="X48" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61255</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>42697</v>
+      </c>
+      <c r="C49" t="s">
+        <v>414</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5075,56 +5436,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y49" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61255</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>424</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5146,56 +5511,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61255</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>80165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5217,56 +5586,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="X51" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="Y51" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61255</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124186</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5288,50 +5661,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61255</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5353,56 +5730,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="X53" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61255</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>459</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5424,56 +5805,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="X54" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61255</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="O55" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5495,56 +5880,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X55" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61255</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>478</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5566,56 +5955,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="X56" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61255</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>487</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5637,56 +6030,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="X57" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61255</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>7852</v>
+      </c>
+      <c r="C58" t="s">
+        <v>496</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="J58" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="K58" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="L58" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5708,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="X58" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="Y58" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59">
@@ -5727,37 +6124,37 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="O59" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5779,56 +6176,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="X59" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="Y59" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61255</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5840,56 +6241,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="X60" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61255</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>524</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="O61" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -5911,56 +6316,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="X61" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="Y61" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61255</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>534</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="J62" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="K62" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5984,50 +6393,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61255</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>541</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="J63" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="K63" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="O63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6049,56 +6462,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X63" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="Y63" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61255</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>541</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="J64" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="L64" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6122,50 +6539,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61255</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="J65" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="K65" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="L65" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="O65" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6187,56 +6608,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="X65" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="Y65" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61255</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>566</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="J66" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="K66" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="L66" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="O66" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6254,56 +6679,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="X66" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="Y66" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61255</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>576</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="J67" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="K67" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="L67" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6321,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="X67" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="Y67" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_63.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_63.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Reality4u</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r601421335-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
+  </si>
+  <si>
+    <t>55725</t>
+  </si>
+  <si>
+    <t>1983469</t>
+  </si>
+  <si>
+    <t>601421335</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Clean, quiet, comfortable!</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this hotel. We were traveling with our dog and the hotel accommodated him for a reasonable pet fee. The room was very clean, bed was fine, and it was very quiet. We would stay here again!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r577975349-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
-    <t>55725</t>
-  </si>
-  <si>
-    <t>1983469</t>
-  </si>
-  <si>
     <t>577975349</t>
   </si>
   <si>
@@ -180,18 +198,15 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Candlewood Suites Decatur Medical Center, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Decatur Medical Center, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
   </si>
   <si>
     <t>We stayed one night. Value was good Accommodations were nice. Bed was comfortable. The hotel appears to be a meeting place for construction and railroad workers. Some stayed there. Many others showed up in the lobby the next morning and filled the parking lot. In fact I was standing outside in a parking place using my phone because it would not work inside the building (AT &amp; T-two blocks from an AT &amp; T sales/service office) and I was asked to move by one of the workers showing up for the day so he could park in that space and there were a lot of spaces available at that time. Not good!! And they served no breakfast. Candlewood is just not up to the standard of the other suite hotels. Won't stay againMore</t>
   </si>
   <si>
-    <t>Boxcarvp45</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r570485786-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -216,9 +231,6 @@
     <t>Usually I have zero issues, but this time was a little different, The parking was horrible due to large construction trucks parking sideways taking up multiple spots. It made it difficult to locate a place to park and many times you had to go to a neighboring business to park and hope you wouldn't have your vehicle towed.Also upon checking in we were asked why we were visiting. They were told that a immediate family member was in the hospital at Wise County Medical Center. Well on our third night there we were informed by the medical staff that if we are staying at Candlewood Suites then we get a discount due to being there due to visiting someone in Wise County hospital. Well upon arrival back at the hotel we informed the hotel staff and they stated that we do get a discount. Upon checking out we discovered they only gave us a discount for 2 of the 4 nights we stayed.More</t>
   </si>
   <si>
-    <t>crl0001</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r558564566-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -237,9 +249,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Sherry P, General Manager at Candlewood Suites Decatur Medical Center, responded to this reviewResponded February 6, 2018</t>
   </si>
   <si>
@@ -249,9 +258,6 @@
     <t>The key amenity of this hotel is the full-size refrigerator in the room as well as a cooktop and a basic set of dishes.  Other reviewers have noted the lack of a breakfast option.  This is to be expected since you can make your own breakfast in the room.The fitness facility is a nice extra and my wife found that she could maintain her exercise routine even while we visited the hotel.  Also, there is a small pantry with items available for sale.The king bed was comfortable.  I will choose to stay here again.More</t>
   </si>
   <si>
-    <t>BestLife2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r549321898-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -279,9 +285,6 @@
     <t>When booking our event, the admins told us we would have a complimentary continental breakfast, but upon arriving, we discovered there was no breakfast. This was no HUGE deal to me, since hotel breakfasts are usually nothing but a carb fest, but still... I could have at least gotten a banana or something. When I went into the little "canteen" offered by the hotel, I could see that someone had covered up the morning breakfast announcement with a paper that said something like: Sorry, no breakfast today. But the woman at the desk said that they NEVER offer breakfast... What? Oh, well, whatever.Room was clean and spacious. Very nice stay. I appreciated having the little kitchenette, though I was only staying one night.More</t>
   </si>
   <si>
-    <t>davidel57</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r506257330-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -300,9 +303,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Martin41999</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r503292898-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -321,9 +321,6 @@
     <t>My daughter and I stayed here with my parents to visit my brother and his wife and their new baby at the hospital. The hotel was clean and we needed a late checkout which they gave us with no trouble at all. The only issue we had was a family that has been staying their for weeks. They seemed to have taken over the pool area and the mother was drinking all day long. It was hard to relax and I didn't feel comfortable letting my daughter leave the room alone and she's 15. I can't really blame this on the hotel though but it was a bad experience for us. We never even swam because of it. The air conditioner made a very loud clicking noise when it shut off which made it hard to sleep but overall, the beds were comfortable, the room was clean, and the staff were very friendly.More</t>
   </si>
   <si>
-    <t>Charles W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r502036894-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>Stayed here for a week when my wife was working in wise county and I was with my 4 kids room was clean and ac worked very good wifi didn't connect all the time but we just went to pool and David the maintenance man was awesome made sure everything was great would highly recommend this hotel More</t>
   </si>
   <si>
-    <t>Travelerfrank79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r497654198-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>This hotel has reasonable rates and is pretty clean.  There is no restaurant but it has kitchenettes so you can prepare food yourself. There seemed to be a lot of families there. I'm sure they have a pool and hot tub.More</t>
   </si>
   <si>
-    <t>TexansFan2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r485785452-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>From beginning to end,our stay at this property was outstanding.  The kitchenette was stocked with everything needed to cook and clean.  The free laundry can't be beat...be sure to bring your own detergent/softener as that is not included.  The rooms are spacious.  OMG&gt;&gt;&gt;the bed was nice and firm yet still comfortable.  The price can't be beat...with taxes for one night King studio suite nonsmoking...$74.64.More</t>
   </si>
   <si>
-    <t>Jamie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r483869938-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <t>Please see the photo of my receipt from a recent stay at this hotel...I was quoted a rate of $79 per night for four nights...who knew they were going to jack up the rate on my last night WITHOUT TELLING ME AND BLACKING IT OUT on my bill??  Is this how Candlewood does business?  Everyone should keep an eye out for this kind of dishonesty when staying here....it will be my last visit to them for sure.More</t>
   </si>
   <si>
-    <t>Trena R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r467775458-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -462,9 +447,6 @@
     <t>A member of my family had a procedure done in decatur, texas.  Booked a room at candlewood suites which was located just a short distance from the hotel.  The room was clean and roomy.  The room has a small kitchen with a full size refrigerator.  The room was very nice.I have two negatives about this perticularhotel.  We did not arrive until later in the evening and stood at the front desk for a good 10 minutes before came out to greet us and begin check in.  This persons actions were very unprofessional.  This person never greeted us , but just ask our name.  I did not feel very welcome in the hotel.  The second item is they do not havea breakfast. Upon checkout, the morning person was friendly, very professional, and quick.  I would stay again just because it is close to the medical facility.More</t>
   </si>
   <si>
-    <t>jantraveler9</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r452441760-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -483,9 +465,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Jan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r448374845-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -507,9 +486,6 @@
     <t>We checked in for one night.  The girl at the front desk was very friendly and quickly gave us a room on the 4th floor.  We had requested a  room on the first floor, as were were travelling with our dog, who hates elevators!  She quickly found us a first floor room and made the change for us.  We asked for a cart, as none were in the lobby.  She immediately went to one of the rooms and brought us a cart back.  This all took place during a shift change.  She was due to get off work, but helped us with a smile.  We were pleasantly surprised at the cleanliness of the hotel in general and of our room.  Everything felt clean and fresh.  I was a little skeptical, as we had stayed at a Candlewood Suites in Owasso, OK two weeks before.  Our room there was neither clean nor fresh.  And the beds were not good.  Our bed at Candlewood, Decatur was comfortable, although the foundation did pop loudly, when we changed position. The microwave, refrigerator and dishwasher are so convenient.   The hotel offers a very nice dog walk area, a pretty little pool and a basketball goal.  It is in a nice, quiet location and is close to great restaurants.  We will certainly stay there again, when in the Decatur area.More</t>
   </si>
   <si>
-    <t>TooSassy30</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r439521531-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>patrikeif2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r434584769-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -552,9 +525,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Pat5414</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r434382656-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -573,9 +543,6 @@
     <t>Check in was seamless, the staff was wonderful.  The room was a nice size, very clean and bed was extremely comfortable.  We stayed for 3 days while enjoying the area. This location was close enough to comfortably drive in to Dallas for a day.We did use the exercise room and were happy with the selection of machines, weights, etc.We were surprised to see that they offered a free laundry room for guest, what a nice surprise this was!! Plenty of machines, everything in there was very clean.My only complaint (and it's a small one) is that they stocked the room with exactly 2 of everything (dishes, silverware, glasses, etc)...it would have been a little nicer to at least have 4 of everything so you weren't needing to wash dishes so often. That being said, we didn't ask for additional either so very possible you could get more just by asking....We would definitely stay at this location again!More</t>
   </si>
   <si>
-    <t>hanrattyK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r428570507-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -603,9 +570,6 @@
     <t>First off the WiFi password didn't work..so I had to call the vendor who does this hotels tech support..I was on hold about 20 min..then I had to give the kid my op anac addresses. REALLY!..next was the strange shower curtain. It isn't long enough or wide enough. I ended up spraying water all over the floor...other than that it was a clean quite and really good parkingMore</t>
   </si>
   <si>
-    <t>Terry B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r401121384-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -621,9 +585,6 @@
     <t>Best hotel in Decatur! Clean rooms and friendly staff. Has a small kitchen area in every room so you can bring in snacks to fix in the room. Love the free laundry facility. Most hotels are limited on machines that don't work half the time.</t>
   </si>
   <si>
-    <t>Christy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r398209873-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -642,9 +603,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>westernmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r397710958-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -666,9 +624,6 @@
     <t>This was the perfect hotel for us! We were traveling with our daughter and her three little ones and the extra spacious room was perfect. This was our favorite place during our 4,000 mile trip! We stayed at several chains - Wyndham, Hilton, Best Western.  This was also our cheapest room!  The check in was good - we changed our room from a king to a dbl queen but they were fine with it. The kids loved having the extra large room after 12 hours in the car! We picked up some food and brought it back to the room.  The little counter made a great table.  We forgot milk for the three year old but the young lady at the front desk gave us a couple of cartons. We really appreciated that. The kids also loved the chocolate chip cookies that were in the lobby. The bathroom was nice sized with very nice towels. The pool was the icing on the cake for us. It's a nice outdoor pool with a couple of little waterfalls. The area was very clean and the kids could laugh and yell without it disturbing anyone. They do need to do a little pool maintenance, but no biggie to us. The place was nice and clean and we felt very comfortable there. We will stay here again. More</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r368725052-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -687,9 +642,6 @@
     <t>I travel for work and stay in a motel 3-4 times a week. Stayed here with my wife and daughter and was greatly pleased. Have never stated at a Candlewood before but will include it as options from now on. Since a room for me when traveling is a place to sleep they provided one of the best beds I've had. It's not far off 287 but did not notice the traffic noise at all.  Again I stay in motels every week so I do not prefer the continental breakfast I prefer eating at a restaurant and the price of this room was so good eating breakfast at a restaurant is not a problem.  I am greatly impressed with all the things they have to loan out like movies and games. This is most definitely a family friendly place. More</t>
   </si>
   <si>
-    <t>alysadventures</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r353146442-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -708,9 +660,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>roxiekay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r352449990-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -726,9 +675,6 @@
     <t>The check in was quick. The property is nicely maintained. The rooms are lsrge and spacious with nice sized kitchens. The bed was comfortable and the recliner was a nice touch. I enjoyed the stay. The gym is well equipped. The location is convenient to the hospital, shopping and highway.</t>
   </si>
   <si>
-    <t>roadwarrior2057</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r343534385-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -747,9 +693,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>FlyfishingJosie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r340053947-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -768,9 +711,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>DurangoLover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r318782036-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -795,9 +735,6 @@
     <t>After traveling 14 hours from Durango in route to Louisiana, Candlewood Suites was a welcome sight. It was extremely comfortable, welcomed our pooch and even recommended a great restaurant (Casa Torres) to these weary travelers.  We will be back!More</t>
   </si>
   <si>
-    <t>Fred Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r303039930-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -825,9 +762,6 @@
     <t>This property is geared more towards extended stay guests than the one night passing through traveler. The room has a kitchenette with enough amenities to do some light food prep (full size fridge, stove top, utensils, cookware, etc)  They were having a cookout for the reward club members the evening we were there and after inquiring they said anyone could attend but we weren't feeling included so we didn't go. Breakfast is continental only and served in the meeting room. Candlewood has "Kupboard" where there is a decent selection of snack foods and beverages. Kind of like a mini convenience store.Pets are kind of welcomed (more paperwork and fees than any other place we stayed at this trip). There is a modest pet relief area on the property. Nothing else available in the area. Air conditioner wasn't working properly but we didn't want to change rooms so we lived with it and reported it to the desk the next morning. Room was smelled musty but that was probably the A/C problem.I think this would be ideal for extended stays but not so much for the one nighter.More</t>
   </si>
   <si>
-    <t>Melanie P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r302451310-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -846,9 +780,6 @@
     <t>Pros - Nice room. I liked the full size fridge. Friendly staff.Cons - LOUSY breakfast. It's almost like an after thought. Only prepackaged items and a handful of fruit. I went down at 7:30. One orange, some blueberry bagels, and a few danishes were left. No milk, oj or water to drink. No staff in site.More</t>
   </si>
   <si>
-    <t>Jessica B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r281248392-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -876,9 +807,6 @@
     <t>We got stuck between Decatur and home after a trip to the Dallas TX area for the day. Major flooding caused all kinds of road closures. The hotel was able to get us 2 rooms close together for the family at the last minute. Staff was very friendly and helpful. The loaner locker and hotel store were very helpful. Suites came stocked with dishes and options for entertainment. One room air conditioning did not function well, but the other room was fine. High quality towels. Worth the money and would be a great place to stay if needed for extended period of time. Washer/dryer available.More</t>
   </si>
   <si>
-    <t>Fallon W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r277111865-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -897,9 +825,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>RON T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r274104036-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -915,9 +840,6 @@
     <t>The facility was neat and clean with a friendly staff. They provide a continental breakfast.  It is also located close to numerous resturaunts, but a favorite is probably a mile away and closer to downtown, Sweetie Pies.  Excellenty food and service.</t>
   </si>
   <si>
-    <t>Leonardpierce</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r263857599-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -936,9 +858,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>63David63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r254777244-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -957,9 +876,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Kymber14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r253722322-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -984,9 +900,6 @@
     <t>My family and I had such a great stay at Candlewood during the holidayds. The front desk went above and beyond to make us feel right at home. I definitely would recommend this hotel to our friends and family. We really enjoyed our stay. Thank ya'll again for the great hospitality. See ya'll again soon. More</t>
   </si>
   <si>
-    <t>FloridaK-gin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r242194895-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +924,6 @@
     <t>These rooms are my favorite of all the rooms I've lived in since traveling for work. A real home away from home that not only offers top notch amenities &amp;beautiful set up, but the service leaves absolutely nothing to be desired! Even while taking the time to come to my room to assist me with internet issues my mngr Mr Nick took the extra second to be effortlessly personable with the simple goal of putting a smile on  my face. I appreciate that. The rates just speak for themselves, &amp;if your not sure what your gettin for your $ when you enter your room your sure to be pleasantly surprised! I'm guna put up my feet&amp; relax in my recliner now as I'm jus returning from a holiday trip home w/ fam to my Candlewood Suite for work in the morning. Satisfied customer signing off...More</t>
   </si>
   <si>
-    <t>Mary M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r241183071-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1035,9 +945,6 @@
     <t>We were impressed with our room &amp; Candlewood Suites in general. We would definitely stay here again if in the area. They have several 'extra mile' amenities. The only downside was when we checked out, the printed statement was not the same price we were told we were being charged. It was less, but the desk clerk kept saying she did not know or couldn't explain instead of trying to get us an answer. So, I will have to call on Mon. &amp; talk to management I guess. Otherwise a great experience!More</t>
   </si>
   <si>
-    <t>somraj r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r240906751-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1053,9 +960,6 @@
     <t>The Candlewood in Decatur is very clean and the staff is efficient and very friendly. The free laundry is very well maintained and very clean a plus in my book. Will decently stay here again. You must here yo like it. Pool outside is nice.</t>
   </si>
   <si>
-    <t>Deanna G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r240439882-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1083,9 +987,6 @@
     <t>The hotel is clean, well maintained and upto date. Internet service is fast and always availble. The staff is pleasant and responsive, especially the manager, Nick, he will make right and make it work.</t>
   </si>
   <si>
-    <t>eigenvektor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r219535137-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1128,9 +1029,6 @@
     <t>I stay at this motel for business a week at a time. I have no  problems with the motel itself. Its always clean and a great place to stay. I do have a problem with them and reservations. I make my reservations when I leave usually for a room on the first floor because of a bad knee. I never get my reservation. They always have some excuse as to why I cant have the room I reserved. I am a platinum member. One time I got told it was because I wasn't when I was. This time I got told these people had this room reserved for year. Really!!! I wont continue to stay here if I am going to be lied to. I make my reservations and expect to be treated just like everyone else.More</t>
   </si>
   <si>
-    <t>Sylvia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r178770568-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1068,6 @@
     <t>This my second stay at Candlewood Suites in Decatur in recent months. The staff are friendly and helpful.  The property is well maintained and clean.  The only problem encountered was a loud cracking noise in the walls off and on during the night. It sounded like wood splitting. More</t>
   </si>
   <si>
-    <t>Darryl_G_TX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r166071626-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1209,9 +1104,6 @@
     <t>I have stayed at this hotel for almost two years due to work and this is the best place I have ever stayed. Every one of the staff are wonderful. Nick is the kindest, most generous individual you will meet. Additionally, this place is very clean with too many amenities to name!</t>
   </si>
   <si>
-    <t>rdtf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r165249253-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +1152,6 @@
     <t>Stayed 2 nights on business and was pleased with my stay. The staff was helpful and friendly. The room was clean and the bed was comfortable. The pool and workout areas were well maintained. A nice place to stay.More</t>
   </si>
   <si>
-    <t>Julie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r160212924-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1290,9 +1179,6 @@
     <t>Staying at the Candlewood Suites in Decatur is one of the best experiences I've had with a hotel. I stay in a hotel over 100 nights a year and this is far above any expectations. The staff and courtesy of this hotel is nothing but the BEST. Thank you for making my stay my homeMore</t>
   </si>
   <si>
-    <t>ChrisF469</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r156602469-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1314,9 +1200,6 @@
     <t>The staff here went above and beyond with all my needs and requests.  The owner is one of the nicest and most respectable individuals I have ever met.  The moment I return to North Texas for work I know where I'll be staying.Thanks Nick, Brittany, Erica and Ashley.-ChrisMore</t>
   </si>
   <si>
-    <t>Olineman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r155544262-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1344,9 +1227,6 @@
     <t>Recently stayed here for the second time while running in a marathon that is held just north of town with a couple of friends.  Needless to say if I run the race next year I will be staying at the same Candlewood Suites again.I do not really know how old the property is but I have paid much more to stay in hotels that are not nearly as clean.  This property still is very well upkept.  I did see a previous review that said the total opposite and have no idea what they were looking at.  We used the pool area both nights we were in town and it still looked as if the hotel opened only a few weeks ago!  The hallways as well as the rooms are immaculate.The staff has always been very personable and helpful.  Never has there been an issue with check in or any request that we have had.No, they do not have any type of breakfast but there are many options within a half mile.  Those usually provide a better selection than most chain hotels can as well.Bottom line is that this seems to be a well managed property with a friendly staff at a very reasonable choice.  I personally hope that they keep it that way.More</t>
   </si>
   <si>
-    <t>GranJanTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r153822352-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +1245,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>dean a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r142431226-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1395,9 +1272,6 @@
     <t>We stayed at this motel due to a family member being admitted to the hospital. We paid $139/ night...totally not worth it !!!!! lumpy pillows... sheets were stained and the walls had scuffs on them.... and the work crew staying there did not make my wife feel safe at all. This motel does not serve breakfast or even a donut...for a 139 bucks thats the least they can do !!!!!!!! staff was completely indifferent and did not even bother to get up from their chair when anyone walked by.....i have stayed in many hotels and even a motel 6 clerk will greet you coming and going. The nurses at the hospital told us that we should have gotten the hospital rate for patients and family...when we brought this to the desk clerks attention she gave us attitude...when asked to speak with the manager the owner refused to speak with us.The only bright spot was the houskeeping staff...they were polite and gave us extra towels.More</t>
   </si>
   <si>
-    <t>Ryan R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r141931948-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1422,9 +1296,6 @@
     <t>Great location! Very Clean! Awesome job this hotel! I very much recommend Candlewood Suites!! It was in the perfect location in Decatur, TX! Around all of the shops &amp; eating places!  It was a home away from home!More</t>
   </si>
   <si>
-    <t>Glennda E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r141495764-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1452,9 +1323,6 @@
     <t>I would recommend the Candlewood to any one.  Very nice people, staff, and clean people.I need to come back for 1 month to 6weeks, and I now know where to stay.I also have family in the area, to visit, but it is nice to have your own living quarters. Thank you for making my stay great..More</t>
   </si>
   <si>
-    <t>anthonyaustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r140536658-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1479,9 +1347,6 @@
     <t>The staff at this hotel is above stellar.  Besides offering free washer and dryer usage, this hotel has all the comforts of home (stove, microwave, full-sized refrigerator).  I recommend this hotel if you are looking for a clean, friendly, and quiet environment.More</t>
   </si>
   <si>
-    <t>Curtis P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r140206052-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1506,9 +1371,6 @@
     <t>Very nice stay. The staff was very helpful, especially the GM and the director of sales. A couple nice touches were the TV in the elevator, and the recliner in the room. I'm in Decatur once a year, and I plan on staying here again.More</t>
   </si>
   <si>
-    <t>Donna D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r138897823-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1563,9 +1425,6 @@
     <t>The staff is helpful and very welcoming.  I can tell they're happy that I'm staying there and have always done whatever they can to help out.  The workout and laundry room is always open and the pool is a nice facility. The size of the fridge alone is enough to keep me there over other places in town.More</t>
   </si>
   <si>
-    <t>Travel-Till-Ya-Drop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r129857996-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1588,9 +1447,6 @@
   </si>
   <si>
     <t>My review stands but something odd. Around the entry way, lobby , store,  gym of this place is trash...it almost looks planted. When I came in last night I just thought they had been super busy even though I didn't see any customers, this morning same story. Even though front desk workers just sitting there with nobody around. If I was sitting in this lovely place I would keep it clean. Maybe they get very low pay and this is their protest.More</t>
-  </si>
-  <si>
-    <t>Cristal D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r128007694-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
@@ -1626,9 +1482,6 @@
 Finally, when the sales manager "remembered" she had agreed to allow us to leave early, we thought the confusion was settled.  Nope.  On the day of our departure, when we lost and our team rep notified the hotel we'd be checking out, I went to the front dest as soon as...I'd love to leave a raving review of this hotel simply to support the housekeeping staff.  They do an amazing job.  This hotel is immaculate.  The ammenities are also remarkable.  Unfortunately, the goodness ends there.  We stayed here with a group and were supposedly given a group rate.  Only to find out later, we were given a rate about $45.00 MORE per night than a comparable group.  (This information came from a slip of tongue by one of the staff members).  Furthermore, we were told by the sales manager, since our group was visiting due to a sports tournament, we could leave if our team lost on the day we lost.  However, even when asking 48 hours in advance to remove a night from my own reservation, I was met with hostility and was told I could not just "walk up there and remove a night" from my reservation.  This startled me.  I have stayed at many hotels and have NEVER had a problem leaving early when giving notice (esp 48 hours!).  Then, I found out other group members had been allowed to do what I was being denied.  Finally, when the sales manager "remembered" she had agreed to allow us to leave early, we thought the confusion was settled.  Nope.  On the day of our departure, when we lost and our team rep notified the hotel we'd be checking out, I went to the front dest as soon as possible to turn in my keys.  I was informed (by one of the most unkind desk clerks I've encountered in the hotel business) I would be charged for that night because I didn't meet their deadline.  WHAT?!?  After settling the matter, I began my travel home.  The next morning, I checked my online banking and realized the hotel still had a hold on my account for over $300.00 more than what I owed.  My bank said to simply have the hotel fax my receipt to them and they'd release the hold.  This took me over three hours to attempt to resolve.  AND I HAD TO CONTACT THEIR HEADQUARTERS just to persuade them to fax my receipt (which they NEVER ended up doing, by the way).  So, as much as I'd like to say I enjoyed my stay at Candlewood Decatur, the stress of dealing with their front desk staff and management far outweighed any pleasure. I would never recommend staying there unless you don't mind the tension and are looking for a fight.More</t>
   </si>
   <si>
-    <t>William S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r125512906-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1647,9 +1500,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>wtxtraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r121096746-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1692,9 +1542,6 @@
     <t>The motel was in tip top shape. Everything was nice and new and comfortable.The front desk girls weren't very friendly however.But the hotel was nice and clean, well-appointed, and pristine.</t>
   </si>
   <si>
-    <t>Ester A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r118912865-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1722,9 +1569,6 @@
     <t>In my 30 plus yrs of business travel - this is one of my top five motels for accomdations at a very resonable price. They went out of their way to make sure we had what we needed when we needed it. Their internet NEVER went down which in its self speaks volumes. Nick and his crew were very professional and yet "down home" friendly.Ester with NodalSeismic LLCMore</t>
   </si>
   <si>
-    <t>BennyWhaley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r115303041-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1750,9 +1594,6 @@
   </si>
   <si>
     <t>I loved my stay the staff is great all the girls on front desk were fabulous!! I have stays at times for 2 and 3 weeks at a time my stay was the best I have ever had at a hotel and I will be back every time I am in Decatur. I loved the free laundry and all the many other excellent services this hotel offers!!! I can't wait to get back!!More</t>
-  </si>
-  <si>
-    <t>lucasg16</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1983469-r115268215-Candlewood_Suites_Decatur_Medical_Center-Decatur_Texas.html</t>
@@ -2281,178 +2122,162 @@
       <c r="A2" t="n">
         <v>61255</v>
       </c>
-      <c r="B2" t="n">
-        <v>124155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61255</v>
       </c>
-      <c r="B3" t="n">
-        <v>124156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61255</v>
       </c>
-      <c r="B4" t="n">
-        <v>124157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -2463,317 +2288,301 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61255</v>
       </c>
-      <c r="B5" t="n">
-        <v>124158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61255</v>
       </c>
-      <c r="B6" t="n">
-        <v>124159</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61255</v>
       </c>
-      <c r="B7" t="n">
-        <v>124160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61255</v>
       </c>
-      <c r="B8" t="n">
-        <v>2180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61255</v>
       </c>
-      <c r="B9" t="n">
-        <v>124161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2784,265 +2593,245 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61255</v>
       </c>
-      <c r="B10" t="n">
-        <v>124162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61255</v>
       </c>
-      <c r="B11" t="n">
-        <v>4517</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61255</v>
       </c>
-      <c r="B12" t="n">
-        <v>124163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61255</v>
       </c>
-      <c r="B13" t="n">
-        <v>124164</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3053,124 +2842,114 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61255</v>
       </c>
-      <c r="B14" t="n">
-        <v>26336</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61255</v>
       </c>
-      <c r="B15" t="n">
-        <v>124165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3190,244 +2969,234 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>61255</v>
       </c>
-      <c r="B16" t="n">
-        <v>124166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>177</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61255</v>
       </c>
-      <c r="B17" t="n">
-        <v>124167</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61255</v>
       </c>
-      <c r="B18" t="n">
-        <v>124168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61255</v>
       </c>
-      <c r="B19" t="n">
-        <v>8121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>180</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -3437,58 +3206,54 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61255</v>
       </c>
-      <c r="B20" t="n">
-        <v>22427</v>
-      </c>
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s">
-        <v>73</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -3501,54 +3266,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61255</v>
       </c>
-      <c r="B21" t="n">
-        <v>124169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>208</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3562,51 +3323,51 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61255</v>
       </c>
-      <c r="B22" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -3619,55 +3380,47 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61255</v>
       </c>
-      <c r="B23" t="n">
-        <v>124170</v>
-      </c>
-      <c r="C23" t="s">
-        <v>223</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>229</v>
-      </c>
-      <c r="O23" t="s">
-        <v>191</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3680,54 +3433,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61255</v>
       </c>
-      <c r="B24" t="n">
-        <v>124171</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3741,54 +3490,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61255</v>
       </c>
-      <c r="B25" t="n">
-        <v>124172</v>
-      </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3802,395 +3547,361 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61255</v>
       </c>
-      <c r="B26" t="n">
-        <v>124173</v>
-      </c>
-      <c r="C26" t="s">
-        <v>243</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61255</v>
       </c>
-      <c r="B27" t="n">
-        <v>124174</v>
-      </c>
-      <c r="C27" t="s">
-        <v>250</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>256</v>
-      </c>
-      <c r="X27" t="s">
-        <v>257</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61255</v>
       </c>
-      <c r="B28" t="n">
-        <v>14876</v>
-      </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>265</v>
-      </c>
-      <c r="O28" t="s">
-        <v>73</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>61255</v>
       </c>
-      <c r="B29" t="n">
-        <v>13258</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
         <v>4</v>
       </c>
-      <c r="N29" t="s">
-        <v>265</v>
-      </c>
-      <c r="O29" t="s">
-        <v>191</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61255</v>
       </c>
-      <c r="B30" t="n">
-        <v>1433</v>
-      </c>
-      <c r="C30" t="s">
-        <v>276</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61255</v>
       </c>
-      <c r="B31" t="n">
-        <v>124175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>286</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -4199,66 +3910,66 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61255</v>
       </c>
-      <c r="B32" t="n">
-        <v>124176</v>
-      </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4269,115 +3980,113 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61255</v>
       </c>
-      <c r="B33" t="n">
-        <v>124177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>299</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>177</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61255</v>
       </c>
-      <c r="B34" t="n">
-        <v>124178</v>
-      </c>
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4391,116 +4100,98 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61255</v>
       </c>
-      <c r="B35" t="n">
-        <v>124179</v>
-      </c>
-      <c r="C35" t="s">
-        <v>313</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>319</v>
-      </c>
-      <c r="X35" t="s">
-        <v>320</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61255</v>
       </c>
-      <c r="B36" t="n">
-        <v>124180</v>
-      </c>
-      <c r="C36" t="s">
-        <v>322</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4527,204 +4218,196 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61255</v>
       </c>
-      <c r="B37" t="n">
-        <v>3739</v>
-      </c>
-      <c r="C37" t="s">
-        <v>331</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s">
-        <v>337</v>
-      </c>
-      <c r="O37" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="n">
         <v>5</v>
       </c>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="X37" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61255</v>
       </c>
-      <c r="B38" t="n">
-        <v>124181</v>
-      </c>
-      <c r="C38" t="s">
-        <v>339</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>177</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61255</v>
       </c>
-      <c r="B39" t="n">
-        <v>3196</v>
-      </c>
-      <c r="C39" t="s">
-        <v>345</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4736,7 +4419,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
@@ -4749,45 +4432,45 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>177</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4799,63 +4482,59 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61255</v>
       </c>
-      <c r="B41" t="n">
-        <v>124182</v>
-      </c>
-      <c r="C41" t="s">
-        <v>355</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>307</v>
+      </c>
+      <c r="O41" t="s">
+        <v>168</v>
+      </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4866,126 +4545,114 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61255</v>
       </c>
-      <c r="B42" t="n">
-        <v>124177</v>
-      </c>
-      <c r="C42" t="s">
-        <v>306</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
-      <c r="N42" t="s">
-        <v>366</v>
-      </c>
-      <c r="O42" t="s">
-        <v>177</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>367</v>
-      </c>
-      <c r="X42" t="s">
-        <v>368</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61255</v>
       </c>
-      <c r="B43" t="n">
-        <v>7979</v>
-      </c>
-      <c r="C43" t="s">
-        <v>370</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" t="s">
+        <v>168</v>
+      </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
@@ -5000,57 +4667,53 @@
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="X43" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61255</v>
       </c>
-      <c r="B44" t="n">
-        <v>124170</v>
-      </c>
-      <c r="C44" t="s">
-        <v>230</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -5058,10 +4721,10 @@
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
@@ -5077,66 +4740,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="X44" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61255</v>
       </c>
-      <c r="B45" t="n">
-        <v>124183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>384</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>390</v>
-      </c>
-      <c r="O45" t="s">
-        <v>177</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
@@ -5152,13 +4807,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46">
@@ -5171,37 +4826,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5222,54 +4877,58 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>356</v>
+      </c>
+      <c r="X46" t="s">
+        <v>357</v>
+      </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61255</v>
       </c>
-      <c r="B47" t="n">
-        <v>124184</v>
-      </c>
-      <c r="C47" t="s">
-        <v>397</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="K47" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>168</v>
+      </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
@@ -5289,55 +4948,47 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>403</v>
-      </c>
-      <c r="X47" t="s">
-        <v>404</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61255</v>
       </c>
-      <c r="B48" t="n">
-        <v>124170</v>
-      </c>
-      <c r="C48" t="s">
-        <v>230</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
@@ -5351,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5361,61 +5012,53 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="X48" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61255</v>
       </c>
-      <c r="B49" t="n">
-        <v>42697</v>
-      </c>
-      <c r="C49" t="s">
-        <v>414</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>420</v>
-      </c>
-      <c r="O49" t="s">
-        <v>177</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
         <v>5</v>
       </c>
@@ -5426,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5436,60 +5079,56 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="X49" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61255</v>
       </c>
-      <c r="B50" t="n">
-        <v>124185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>424</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="J50" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="O50" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5511,63 +5150,59 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61255</v>
       </c>
-      <c r="B51" t="n">
-        <v>80165</v>
-      </c>
-      <c r="C51" t="s">
-        <v>432</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>5</v>
@@ -5586,65 +5221,63 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="X51" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="Y51" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61255</v>
       </c>
-      <c r="B52" t="n">
-        <v>124186</v>
-      </c>
-      <c r="C52" t="s">
-        <v>442</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
@@ -5658,210 +5291,196 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
       <c r="Y52" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61255</v>
       </c>
-      <c r="B53" t="n">
-        <v>124187</v>
-      </c>
-      <c r="C53" t="s">
-        <v>449</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>456</v>
-      </c>
-      <c r="X53" t="s">
-        <v>457</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61255</v>
       </c>
-      <c r="B54" t="n">
-        <v>3158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>459</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="X54" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61255</v>
       </c>
-      <c r="B55" t="n">
-        <v>124188</v>
-      </c>
-      <c r="C55" t="s">
-        <v>468</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
         <v>5</v>
@@ -5880,63 +5499,59 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="X55" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="Y55" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61255</v>
       </c>
-      <c r="B56" t="n">
-        <v>124189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>478</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="J56" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="K56" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
         <v>5</v>
@@ -5955,60 +5570,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="Y56" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61255</v>
       </c>
-      <c r="B57" t="n">
-        <v>124190</v>
-      </c>
-      <c r="C57" t="s">
-        <v>487</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="K57" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="O57" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6030,60 +5641,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="X57" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="Y57" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61255</v>
       </c>
-      <c r="B58" t="n">
-        <v>7852</v>
-      </c>
-      <c r="C58" t="s">
-        <v>496</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="O58" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6105,13 +5712,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="X58" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="Y58" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59">
@@ -6124,255 +5731,243 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="O59" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="X59" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="Y59" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61255</v>
       </c>
-      <c r="B60" t="n">
-        <v>124191</v>
-      </c>
-      <c r="C60" t="s">
-        <v>515</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="J60" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="K60" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
       <c r="X60" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61255</v>
       </c>
-      <c r="B61" t="n">
-        <v>124192</v>
-      </c>
-      <c r="C61" t="s">
-        <v>524</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="J61" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>530</v>
+        <v>392</v>
       </c>
       <c r="O61" t="s">
-        <v>191</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>1</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="X61" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="Y61" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61255</v>
       </c>
-      <c r="B62" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C62" t="s">
-        <v>534</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="J62" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="K62" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="L62" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="O62" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
         <v>5</v>
@@ -6385,65 +5980,65 @@
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>483</v>
+      </c>
+      <c r="X62" t="s">
+        <v>484</v>
+      </c>
       <c r="Y62" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61255</v>
       </c>
-      <c r="B63" t="n">
-        <v>124193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>541</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="J63" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="K63" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
@@ -6456,69 +6051,61 @@
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>548</v>
-      </c>
-      <c r="X63" t="s">
-        <v>549</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61255</v>
       </c>
-      <c r="B64" t="n">
-        <v>124192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>541</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="J64" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="K64" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="L64" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="O64" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
@@ -6536,57 +6123,57 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>498</v>
+      </c>
+      <c r="X64" t="s">
+        <v>499</v>
+      </c>
       <c r="Y64" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61255</v>
       </c>
-      <c r="B65" t="n">
-        <v>124194</v>
-      </c>
-      <c r="C65" t="s">
-        <v>556</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="J65" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="K65" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="L65" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>562</v>
+        <v>497</v>
       </c>
       <c r="O65" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6602,72 +6189,68 @@
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>563</v>
-      </c>
-      <c r="X65" t="s">
-        <v>564</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61255</v>
       </c>
-      <c r="B66" t="n">
-        <v>124195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>566</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="J66" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="K66" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="L66" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="O66" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
       <c r="S66" t="n">
         <v>5</v>
       </c>
@@ -6679,60 +6262,56 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="X66" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="Y66" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61255</v>
       </c>
-      <c r="B67" t="n">
-        <v>124196</v>
-      </c>
-      <c r="C67" t="s">
-        <v>576</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="J67" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="K67" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="L67" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6750,13 +6329,80 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="X67" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="Y67" t="s">
-        <v>584</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>61255</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>524</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>525</v>
+      </c>
+      <c r="J68" t="s">
+        <v>526</v>
+      </c>
+      <c r="K68" t="s">
+        <v>527</v>
+      </c>
+      <c r="L68" t="s">
+        <v>528</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
+      </c>
+      <c r="O68" t="s">
+        <v>168</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>529</v>
+      </c>
+      <c r="X68" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
